--- a/biology/Botanique/Stachys_riederi/Stachys_riederi.xlsx
+++ b/biology/Botanique/Stachys_riederi/Stachys_riederi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Stachys riederi est une espèce de plantes de la famille des Lamiaceae.
 Plusieurs variétés ou sous-espèces de Stachys riederi sont connues:
@@ -517,14 +529,16 @@
           <t>Liste des variétés et formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 mai 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (21 mai 2013) :
 Stachys riederi Cham. (1831)
 variété Stachys riederi var. hispidula (Regel) H.Hara (1937)
 variété Stachys riederi var. japonica (Miq.) H.Hara (1937)
 variété Stachys riederi var. riederi
-Selon Tropicos                                           (21 mai 2013)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Stachys riederi var. hispida (Ledeb.) H. Hara
 variété Stachys riederi var. hispidula (Regel) H. Hara
 variété Stachys riederi var. japonica (Miq.) H. Hara
